--- a/W_文本表_Excel_BUFF数值.xlsx
+++ b/W_文本表_Excel_BUFF数值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE558D-5918-414A-A709-EE88E5C70681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF32A23-B63A-4F9F-A959-31CE4485A3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
     <t>Производство дерева в час (селяне)</t>
   </si>
   <si>
-    <t>إنتاج القرويين للخشب في الساعة</t>
+    <t>تقليل الضرر لكل أنواع الوحدات</t>
   </si>
   <si>
     <t>Köylülerin Saatlik Odun Üretimi</t>
@@ -250,7 +250,7 @@
     <t>BufferBaseValueConfig</t>
   </si>
   <si>
-    <t>2025-01-22 16:32:30</t>
+    <t>2025-03-31 11:23:35</t>
   </si>
   <si>
     <t>2022-12-19 19:47:38</t>
@@ -899,7 +899,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,13 +1026,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1CFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1117,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1134,6 +1147,7 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1440,7 +1454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1767,13 +1781,13 @@
       <c r="N6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="16" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="16" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="15" t="s">
@@ -1856,7 +1870,7 @@
       <c r="P7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="16" t="s">
         <v>93</v>
       </c>
       <c r="S7" s="15" t="s">
@@ -1939,7 +1953,7 @@
       <c r="P8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="16" t="s">
         <v>112</v>
       </c>
       <c r="S8" s="15" t="s">
@@ -2287,7 +2301,7 @@
       <c r="P14" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="16" t="s">
         <v>172</v>
       </c>
       <c r="S14" s="15" t="s">
@@ -2370,7 +2384,7 @@
       <c r="P15" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="16" t="s">
         <v>191</v>
       </c>
       <c r="S15" s="15" t="s">
@@ -2453,7 +2467,7 @@
       <c r="P16" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="16" t="s">
         <v>210</v>
       </c>
       <c r="S16" s="15" t="s">
@@ -2536,7 +2550,7 @@
       <c r="P17" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="16" t="s">
         <v>229</v>
       </c>
       <c r="S17" s="15" t="s">
@@ -2619,7 +2633,7 @@
       <c r="P18" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="16" t="s">
         <v>248</v>
       </c>
       <c r="S18" s="15" t="s">
@@ -2702,7 +2716,7 @@
       <c r="P19" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="16" t="s">
         <v>267</v>
       </c>
       <c r="S19" s="15" t="s">
@@ -2785,7 +2799,7 @@
       <c r="P20" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="16" t="s">
         <v>286</v>
       </c>
       <c r="S20" s="10" t="s">
